--- a/Downstream_R_Code/Extra_Analysis/Collection_Date_Analysis/Pvalue_Table_Collection_Date.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Collection_Date_Analysis/Pvalue_Table_Collection_Date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft18\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Collection_Date_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Collection_Date_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8D2A1B37-1433-47E4-A61B-FE57F6C179F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECBE153-2AE0-46CD-825C-C4F0A0ABF574}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2595" windowWidth="25200" windowHeight="12030"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pvalue_Table_Collection_Date" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>HPV.type</t>
   </si>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF33CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -659,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -668,9 +668,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,12 +1029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,34 +1125,34 @@
         <v>28</v>
       </c>
       <c r="C2" s="2">
-        <v>0.54015964079128698</v>
+        <v>0.58181840844448895</v>
       </c>
       <c r="D2" s="2">
-        <v>0.60767959589019804</v>
+        <v>0.66493532393655896</v>
       </c>
       <c r="E2" s="2">
-        <v>-3.0936255394878199E-2</v>
+        <v>-5.1292632391516997E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>0.82667671412412702</v>
+        <v>0.86580034824831598</v>
       </c>
       <c r="G2" s="2">
-        <v>0.82667671412412702</v>
+        <v>0.86580034824831598</v>
       </c>
       <c r="H2" s="2">
-        <v>0.94530076155206599</v>
+        <v>0.68508478248885496</v>
       </c>
       <c r="I2" s="2">
-        <v>0.94530076155206599</v>
+        <v>0.68748603604634395</v>
       </c>
       <c r="J2" s="2">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="K2" s="2">
-        <v>60</v>
+        <v>53.8</v>
       </c>
       <c r="L2" s="2">
-        <v>-1.7</v>
+        <v>-0.5</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -1162,19 +1161,19 @@
         <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="P2" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="Q2" s="2">
         <v>-1</v>
       </c>
       <c r="R2" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
       <c r="S2" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1244,40 +1243,40 @@
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.193815125482481</v>
+        <v>0.19841906099741799</v>
       </c>
       <c r="D4" s="2">
-        <v>0.47901072735946498</v>
+        <v>0.44644288724419001</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.15554187344956999</v>
+        <v>-0.15591782413682501</v>
       </c>
       <c r="F4" s="2">
-        <v>0.458793480608855</v>
+        <v>0.44604641222425501</v>
       </c>
       <c r="G4" s="2">
-        <v>0.60176860991820202</v>
+        <v>0.64494813780573101</v>
       </c>
       <c r="H4" s="2">
-        <v>0.384064838849623</v>
+        <v>0.43887768634549401</v>
       </c>
       <c r="I4" s="2">
-        <v>0.49379764994951503</v>
+        <v>0.62570793304935302</v>
       </c>
       <c r="J4" s="2">
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="K4" s="2">
-        <v>60.9</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2">
-        <v>-4.4000000000000004</v>
+        <v>-6.5</v>
       </c>
       <c r="M4" s="2">
-        <v>0.83248332547106496</v>
+        <v>0.65249075519445499</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0.80085557324589696</v>
       </c>
       <c r="O4" s="2">
         <v>1998</v>
@@ -1289,10 +1288,10 @@
         <v>-3</v>
       </c>
       <c r="R4" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.92529738530207295</v>
       </c>
       <c r="S4" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1303,55 +1302,55 @@
         <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>0.73603025777604003</v>
+        <v>0.438285362503325</v>
       </c>
       <c r="D5" s="2">
-        <v>0.73603025777604003</v>
+        <v>0.58438048333776604</v>
       </c>
       <c r="E5" s="2">
-        <v>0.115860374725596</v>
+        <v>0.113938946510188</v>
       </c>
       <c r="F5" s="2">
-        <v>0.383378000744862</v>
+        <v>0.37306459641531198</v>
       </c>
       <c r="G5" s="2">
-        <v>0.66438263378723295</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H5" s="2">
-        <v>0.86448474963311694</v>
+        <v>0.68748603604634395</v>
       </c>
       <c r="I5" s="2">
-        <v>0.94530076155206599</v>
+        <v>0.68748603604634395</v>
       </c>
       <c r="J5" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="L5" s="2">
-        <v>5</v>
+        <v>14.6</v>
       </c>
       <c r="M5" s="2">
-        <v>0.75175768525342501</v>
+        <v>0.45592295135450001</v>
       </c>
       <c r="N5" s="2">
-        <v>0.96654559532583295</v>
+        <v>0.82923588039867102</v>
       </c>
       <c r="O5" s="2">
+        <v>2006</v>
+      </c>
+      <c r="P5" s="2">
         <v>2004</v>
       </c>
-      <c r="P5" s="2">
-        <v>2003</v>
-      </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2">
-        <v>0.98856586935082602</v>
+        <v>0.909018627179073</v>
       </c>
       <c r="S5" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1421,55 +1420,55 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>0.29607685402719303</v>
+        <v>0.168079275461026</v>
       </c>
       <c r="D7" s="2">
-        <v>0.47901072735946498</v>
+        <v>0.44644288724419001</v>
       </c>
       <c r="E7" s="2">
-        <v>0.137083957036957</v>
+        <v>0.16221116200883101</v>
       </c>
       <c r="F7" s="2">
-        <v>8.3697868744276399E-2</v>
+        <v>9.91546685768811E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>0.50913970730233304</v>
+        <v>0.63408915766016705</v>
       </c>
       <c r="H7" s="2">
-        <v>0.503348122764118</v>
+        <v>0.30359457772666298</v>
       </c>
       <c r="I7" s="2">
-        <v>0.56626663810963296</v>
+        <v>0.54647023990799304</v>
       </c>
       <c r="J7" s="2">
-        <v>26.1</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2">
-        <v>19.600000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L7" s="2">
-        <v>6.5</v>
+        <v>12.1</v>
       </c>
       <c r="M7" s="2">
-        <v>0.620051163253454</v>
+        <v>0.293305800181551</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="O7" s="2">
         <v>2002</v>
       </c>
       <c r="P7" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="Q7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="2">
-        <v>0.60356247964495302</v>
+        <v>0.47729329239514201</v>
       </c>
       <c r="S7" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1480,55 +1479,55 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>0.413568065572128</v>
+        <v>0.89596065829239702</v>
       </c>
       <c r="D8" s="2">
-        <v>0.60767959589019804</v>
+        <v>0.89596065829239702</v>
       </c>
       <c r="E8" s="2">
-        <v>-6.6725063549790395E-2</v>
+        <v>-6.3454565065080196E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.61689123171605398</v>
+        <v>0.25732944772240202</v>
       </c>
       <c r="G8" s="2">
-        <v>0.74762259652005802</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H8" s="2">
-        <v>0.24722139001603899</v>
+        <v>0.40270799366919302</v>
       </c>
       <c r="I8" s="2">
-        <v>0.40171708324493599</v>
+        <v>0.53694399155892403</v>
       </c>
       <c r="J8" s="2">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K8" s="2">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="L8" s="2">
-        <v>-7.2</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="M8" s="2">
-        <v>0.28787878787878801</v>
+        <v>0.51827242524916906</v>
       </c>
       <c r="N8" s="2">
-        <v>0.79870129870129902</v>
+        <v>0.82923588039867102</v>
       </c>
       <c r="O8" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="P8" s="2">
         <v>2004</v>
       </c>
       <c r="Q8" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>0.94786435975768102</v>
+        <v>0.99699808903596998</v>
       </c>
       <c r="S8" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1539,34 +1538,34 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>0.41356823024073902</v>
+        <v>0.89596902485855501</v>
       </c>
       <c r="D9" s="2">
-        <v>0.47901072735946498</v>
+        <v>0.99927190991118098</v>
       </c>
       <c r="E9" s="2">
-        <v>1.6118958878647598E-2</v>
+        <v>3.2626674079772801E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>0.60432114402346304</v>
+        <v>0.63045767382384699</v>
       </c>
       <c r="G9" s="2">
-        <v>0.67986128702639603</v>
+        <v>0.709264883051828</v>
       </c>
       <c r="H9" s="2">
-        <v>0.19609044908262099</v>
+        <v>0.55618482937720204</v>
       </c>
       <c r="I9" s="2">
-        <v>0.294135673623931</v>
+        <v>0.62570793304935302</v>
       </c>
       <c r="J9" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="K9" s="2">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="L9" s="2">
-        <v>-2.1</v>
+        <v>-0.1</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1575,19 +1574,19 @@
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="P9" s="2">
         <v>1999</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R9" s="2">
-        <v>0.989006885597568</v>
+        <v>0.78559641389327795</v>
       </c>
       <c r="S9" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,55 +1597,55 @@
         <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>0.36537320912822202</v>
+        <v>0.41394763971911502</v>
       </c>
       <c r="D10" s="2">
-        <v>0.60767959589019804</v>
+        <v>0.58438048333776604</v>
       </c>
       <c r="E10" s="2">
-        <v>0.13209266999117</v>
+        <v>0.128072982059417</v>
       </c>
       <c r="F10" s="2">
-        <v>0.33105374000134802</v>
+        <v>0.34085993347526899</v>
       </c>
       <c r="G10" s="2">
-        <v>0.66438263378723295</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H10" s="2">
-        <v>8.5378897812676199E-3</v>
+        <v>2.4005755491681099E-2</v>
       </c>
       <c r="I10" s="8">
-        <v>4.74190788650974E-2</v>
+        <v>9.6023021966724201E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="M10" s="2">
-        <v>0.53246753246753298</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0.79870129870129902</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>2010</v>
       </c>
       <c r="P10" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="Q10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2">
-        <v>0.63653751485880194</v>
+        <v>0.69906856291016295</v>
       </c>
       <c r="S10" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1657,40 +1656,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>0.36538704914914699</v>
+        <v>0.41394813784630102</v>
       </c>
       <c r="D11" s="2">
-        <v>0.47901072735946498</v>
+        <v>0.62092220676945098</v>
       </c>
       <c r="E11" s="2">
-        <v>0.138752531341445</v>
+        <v>0.144888311551573</v>
       </c>
       <c r="F11" s="2">
-        <v>0.34433566669053001</v>
+        <v>0.43582390394283799</v>
       </c>
       <c r="G11" s="2">
-        <v>0.60176860991820202</v>
+        <v>0.64494813780573101</v>
       </c>
       <c r="H11" s="2">
-        <v>9.5951308944478203E-2</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.24863978978142501</v>
+        <v>0.25044091425464599</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.54647023990799304</v>
       </c>
       <c r="J11" s="2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2">
-        <v>0.49450549450549403</v>
+        <v>0.493670886075949</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="O11" s="2">
         <v>2010</v>
@@ -1702,10 +1701,10 @@
         <v>11</v>
       </c>
       <c r="R11" s="2">
-        <v>0.41801097131738901</v>
+        <v>0.41526675254353301</v>
       </c>
       <c r="S11" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,55 +1715,55 @@
         <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>0.18148696936030001</v>
+        <v>0.121371403894837</v>
       </c>
       <c r="D12" s="2">
-        <v>0.54446090808090097</v>
+        <v>0.54082269582563902</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.13172395959074901</v>
+        <v>-0.184702548810013</v>
       </c>
       <c r="F12" s="2">
-        <v>0.33696383050584799</v>
+        <v>0.28026422906718401</v>
       </c>
       <c r="G12" s="2">
-        <v>0.66438263378723295</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H12" s="2">
-        <v>0.58893167532883095</v>
+        <v>0.401092558677908</v>
       </c>
       <c r="I12" s="2">
-        <v>0.75719786827992497</v>
+        <v>0.53694399155892403</v>
       </c>
       <c r="J12" s="2">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K12" s="2">
-        <v>15</v>
+        <v>23.1</v>
       </c>
       <c r="L12" s="2">
-        <v>-12.2</v>
+        <v>-19.8</v>
       </c>
       <c r="M12" s="2">
-        <v>0.124928530588908</v>
+        <v>7.5318045539259401E-2</v>
       </c>
       <c r="N12" s="2">
-        <v>0.56217838765008599</v>
+        <v>0.60254436431407499</v>
       </c>
       <c r="O12" s="2">
         <v>1997</v>
       </c>
       <c r="P12" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="Q12" s="2">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="R12" s="2">
-        <v>0.39677061150731802</v>
+        <v>0.33320342524923502</v>
       </c>
       <c r="S12" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1834,40 +1833,40 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>0.140834828690135</v>
+        <v>9.9250908388030398E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.47901072735946498</v>
+        <v>0.44644288724419001</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.113235355304181</v>
+        <v>-0.11645755574665401</v>
       </c>
       <c r="F14" s="2">
-        <v>0.26904349930963101</v>
+        <v>0.211363052553389</v>
       </c>
       <c r="G14" s="2">
-        <v>0.60176860991820202</v>
+        <v>0.63408915766016705</v>
       </c>
       <c r="H14" s="2">
-        <v>0.110506573236189</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.24863978978142501</v>
+        <v>4.83166416477432E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.32802058420063701</v>
       </c>
       <c r="J14" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="K14" s="2">
-        <v>10.9</v>
+        <v>12.8</v>
       </c>
       <c r="L14" s="2">
-        <v>-8.6999999999999993</v>
+        <v>-10.3</v>
       </c>
       <c r="M14" s="2">
-        <v>0.20312639704348301</v>
+        <v>0.10840046029919401</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="O14" s="2">
         <v>1994</v>
@@ -1879,10 +1878,10 @@
         <v>-6</v>
       </c>
       <c r="R14" s="2">
-        <v>0.40065849726481501</v>
+        <v>0.44745154509852902</v>
       </c>
       <c r="S14" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1893,55 +1892,55 @@
         <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>4.4643068360624302E-2</v>
+        <v>0.20280851093461499</v>
       </c>
       <c r="D15" s="3">
-        <v>0.40178761524561901</v>
+        <v>0.54082269582563902</v>
       </c>
       <c r="E15" s="3">
-        <v>-0.105904944025091</v>
+        <v>-6.5879684250157403E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>0.26759807123389601</v>
+        <v>0.39557773611650099</v>
       </c>
       <c r="G15" s="3">
-        <v>0.66438263378723295</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H15" s="3">
-        <v>2.5336716408236801E-2</v>
+        <v>2.0353784356508999E-2</v>
       </c>
       <c r="I15" s="9">
-        <v>7.6010149224710402E-2</v>
+        <v>9.6023021966724201E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>19.399999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="K15" s="3">
-        <v>50</v>
+        <v>15.4</v>
       </c>
       <c r="L15" s="3">
-        <v>-30.6</v>
+        <v>-12.1</v>
       </c>
       <c r="M15" s="3">
-        <v>3.1984827609830298E-2</v>
+        <v>0.21278664613888701</v>
       </c>
       <c r="N15" s="3">
-        <v>0.28786344848847301</v>
+        <v>0.806201550387597</v>
       </c>
       <c r="O15" s="3">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="P15" s="3">
         <v>2005</v>
       </c>
       <c r="Q15" s="3">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="R15" s="3">
-        <v>0.31120637552782998</v>
+        <v>0.73107248647406298</v>
       </c>
       <c r="S15" s="3">
-        <v>0.99999682682973301</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2011,55 +2010,55 @@
         <v>18</v>
       </c>
       <c r="C17" s="3">
-        <v>0.24144540606137499</v>
+        <v>0.99927190991118098</v>
       </c>
       <c r="D17" s="3">
-        <v>0.47901072735946498</v>
+        <v>0.99927190991118098</v>
       </c>
       <c r="E17" s="3">
-        <v>6.4455244737202502E-2</v>
+        <v>1.7517932351667199E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>0.28584277800318397</v>
+        <v>0.50162632940445695</v>
       </c>
       <c r="G17" s="3">
-        <v>0.60176860991820202</v>
+        <v>0.64494813780573101</v>
       </c>
       <c r="H17" s="3">
-        <v>9.9577775176220407E-2</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.24863978978142501</v>
+        <v>0.18296097379433501</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.54647023990799304</v>
       </c>
       <c r="J17" s="3">
-        <v>19.600000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="K17" s="3">
-        <v>26.1</v>
+        <v>10.3</v>
       </c>
       <c r="L17" s="3">
-        <v>-6.5</v>
+        <v>-2.8</v>
       </c>
       <c r="M17" s="3">
-        <v>0.620051163253454</v>
+        <v>0.71187162066302001</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>0.80085557324589696</v>
       </c>
       <c r="O17" s="3">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="P17" s="3">
         <v>1999</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="3">
-        <v>0.73625511307640801</v>
+        <v>0.99983584909146095</v>
       </c>
       <c r="S17" s="3">
-        <v>0.99163590330126605</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2067,37 +2066,37 @@
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>0.52475831279155105</v>
+        <v>0.83453615976965201</v>
       </c>
       <c r="D18" s="2">
-        <v>0.60767959589019804</v>
+        <v>0.83453615976965201</v>
       </c>
       <c r="E18" s="2">
-        <v>6.02824994796297E-2</v>
+        <v>-3.6628354862462603E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>0.66455341912894095</v>
+        <v>0.79572058891212105</v>
       </c>
       <c r="G18" s="2">
-        <v>0.74762259652005802</v>
+        <v>0.89328927286068505</v>
       </c>
       <c r="H18" s="2">
-        <v>0.26781138882995698</v>
+        <v>0.26586906720200798</v>
       </c>
       <c r="I18" s="2">
-        <v>0.40171708324493599</v>
+        <v>0.44311511200334702</v>
       </c>
       <c r="J18" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L18" s="2">
-        <v>2.8</v>
+        <v>-3.8</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -2106,19 +2105,19 @@
         <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="P18" s="2">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="Q18" s="2">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="R18" s="2">
-        <v>0.83746780874215399</v>
+        <v>0.86055861922849397</v>
       </c>
       <c r="S18" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99858153412897499</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2126,117 +2125,117 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>0.83453615976965201</v>
+        <v>0.83454698750052403</v>
       </c>
       <c r="D19" s="2">
-        <v>0.83453615976965201</v>
+        <v>0.99927190991118098</v>
       </c>
       <c r="E19" s="2">
-        <v>-3.6628354862462603E-2</v>
+        <v>-8.4078893020911399E-2</v>
       </c>
       <c r="F19" s="2">
-        <v>0.79572058891212105</v>
+        <v>0.76574575432371195</v>
       </c>
       <c r="G19" s="2">
-        <v>0.89328927286068505</v>
+        <v>0.76574575432371195</v>
       </c>
       <c r="H19" s="2">
-        <v>0.26586906720200798</v>
+        <v>0.77158992321120201</v>
       </c>
       <c r="I19" s="2">
-        <v>0.44311511200334702</v>
+        <v>0.77158992321120201</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="L19" s="2">
-        <v>-3.8</v>
+        <v>-2.6</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0.493670886075949</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="O19" s="2">
         <v>1991</v>
       </c>
       <c r="P19" s="2">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="Q19" s="2">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="R19" s="2">
-        <v>0.86055861922849397</v>
+        <v>0.89125420866192695</v>
       </c>
       <c r="S19" s="2">
-        <v>0.99858153412897499</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>0.75839961069001105</v>
+        <v>0.37646619447000701</v>
       </c>
       <c r="D20" s="2">
-        <v>0.75839961069001105</v>
+        <v>0.58438048333776604</v>
       </c>
       <c r="E20" s="2">
-        <v>-5.4757445112775298E-2</v>
+        <v>-0.13853169522338599</v>
       </c>
       <c r="F20" s="2">
-        <v>0.86789912643360401</v>
+        <v>0.29516721958164499</v>
       </c>
       <c r="G20" s="2">
-        <v>0.86789912643360401</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H20" s="2">
-        <v>0.88616852422656101</v>
+        <v>0.40244073488049198</v>
       </c>
       <c r="I20" s="2">
-        <v>0.88616852422656101</v>
+        <v>0.53694399155892403</v>
       </c>
       <c r="J20" s="2">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>2.2000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>-7.7</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0.30232558139534899</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0.806201550387597</v>
       </c>
       <c r="O20" s="2">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="P20" s="2">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="R20" s="2">
-        <v>0.99000288157996597</v>
+        <v>0.72830541307021801</v>
       </c>
       <c r="S20" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.99997981329774199</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2244,96 +2243,96 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>0.42578723144319902</v>
+        <v>0.37650688702672502</v>
       </c>
       <c r="D21" s="2">
-        <v>0.60767959589019804</v>
+        <v>0.62092220676945098</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.10560492761142901</v>
+        <v>-2.46040112835073E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>0.44292175585815502</v>
+        <v>0.39777753325162002</v>
       </c>
       <c r="G21" s="2">
-        <v>0.66438263378723295</v>
+        <v>0.64494813780573101</v>
       </c>
       <c r="H21" s="2">
-        <v>0.18850530333096299</v>
+        <v>0.48971432277004601</v>
       </c>
       <c r="I21" s="2">
-        <v>0.40171708324493599</v>
+        <v>0.62570793304935302</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="L21" s="2">
-        <v>-5</v>
+        <v>-2.6</v>
       </c>
       <c r="M21" s="2">
-        <v>0.35714285714285698</v>
+        <v>0.493670886075949</v>
       </c>
       <c r="N21" s="2">
-        <v>0.79870129870129902</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="O21" s="2">
         <v>1995</v>
       </c>
       <c r="P21" s="2">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="Q21" s="2">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="R21" s="2">
-        <v>0.81155285105167696</v>
+        <v>0.96189161149607005</v>
       </c>
       <c r="S21" s="2">
-        <v>0.99999682682973301</v>
+        <v>0.99983584909146095</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>0.42578731320841401</v>
+        <v>0.17972191187738501</v>
       </c>
       <c r="D22" s="2">
-        <v>0.47901072735946498</v>
+        <v>0.54082269582563902</v>
       </c>
       <c r="E22" s="2">
-        <v>-2.5680996931851899E-2</v>
+        <v>0.25809098403272202</v>
       </c>
       <c r="F22" s="2">
-        <v>0.46804225215860201</v>
+        <v>0.31254268061822499</v>
       </c>
       <c r="G22" s="2">
-        <v>0.60176860991820202</v>
+        <v>0.45208884127600102</v>
       </c>
       <c r="H22" s="2">
-        <v>0.154800823770224</v>
+        <v>0.16413655042207301</v>
       </c>
       <c r="I22" s="2">
-        <v>0.27864148278640299</v>
+        <v>0.43769746779219498</v>
       </c>
       <c r="J22" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="L22" s="2">
-        <v>-2.2000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
@@ -2342,19 +2341,19 @@
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="P22" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="Q22" s="2">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="R22" s="2">
-        <v>0.965643023588727</v>
+        <v>0.101064653556543</v>
       </c>
       <c r="S22" s="2">
-        <v>0.99163590330126605</v>
+        <v>0.80851722845234697</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2362,124 +2361,65 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>0.149325685032246</v>
+        <v>0.17973690689767099</v>
       </c>
       <c r="D23" s="2">
-        <v>0.54446090808090097</v>
+        <v>0.44644288724419001</v>
       </c>
       <c r="E23" s="2">
-        <v>0.240722650964522</v>
+        <v>0.22285995420854099</v>
       </c>
       <c r="F23" s="2">
-        <v>6.9805042537991704E-2</v>
+        <v>0.163872129425021</v>
       </c>
       <c r="G23" s="2">
-        <v>0.62824538284192599</v>
+        <v>0.63408915766016705</v>
       </c>
       <c r="H23" s="2">
-        <v>1.05375730811328E-2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>4.74190788650974E-2</v>
+        <v>7.28934631556971E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.32802058420063701</v>
       </c>
       <c r="J23" s="2">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="M23" s="2">
-        <v>0.53246753246753298</v>
+        <v>0.493670886075949</v>
       </c>
       <c r="N23" s="2">
-        <v>0.79870129870129902</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="O23" s="2">
         <v>2015</v>
       </c>
       <c r="P23" s="2">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="Q23" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R23" s="2">
-        <v>8.1258335409319996E-2</v>
+        <v>7.1500988024149795E-2</v>
       </c>
       <c r="S23" s="2">
-        <v>0.73132501868388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.14932573425738699</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.47901072735946498</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.209545240988043</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.113142157178296</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.50913970730233304</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2.4783183585798702E-2</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0.22304865227218801</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.49450549450549403</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <v>2015</v>
-      </c>
-      <c r="P24" s="2">
-        <v>1999</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>16</v>
-      </c>
-      <c r="R24" s="2">
-        <v>6.5363302709703794E-2</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.58826972438733405</v>
+        <v>0.64350889221734897</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S24">
-    <sortCondition ref="A2:A24"/>
-    <sortCondition ref="B2:B24"/>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
+    <sortCondition ref="A2:A23"/>
+    <sortCondition ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
